--- a/Data.xlsx
+++ b/Data.xlsx
@@ -2875,7 +2875,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7814,15 +7814,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8227,7 +8227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A6DB47-7342-D94F-B4AC-454B6889C356}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8436,7 +8438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6CDC89-A513-1E4C-807D-365D00C94428}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="L30" sqref="K30:L35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8873,6 +8877,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>